--- a/OREI_files/40-herd data/40herd_univariate_exploration_5_19_22.xlsx
+++ b/OREI_files/40-herd data/40herd_univariate_exploration_5_19_22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{801D8A6B-3A3C-40DC-921F-042FE80875D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{931BC66A-2761-4076-BCCF-5D76C4E3AD5E}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{801D8A6B-3A3C-40DC-921F-042FE80875D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FCD81AF-8CCE-4E1B-AF75-893FAE410D17}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9BA36239-C544-48F8-BEF0-B089E60DB4FC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="7" xr2:uid="{9BA36239-C544-48F8-BEF0-B089E60DB4FC}"/>
   </bookViews>
   <sheets>
     <sheet name="key" sheetId="11" r:id="rId1"/>
@@ -564,6 +564,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -747,7 +750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -798,6 +801,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1141,7 +1145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDE05F0-7ABF-40FA-8E57-7BB07F5526D5}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -5429,8 +5433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11383C1-0812-4BA6-AEEB-A17558293CFA}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5438,7 +5442,7 @@
     <col min="2" max="2" width="30.08984375" customWidth="1"/>
     <col min="3" max="3" width="49.6328125" customWidth="1"/>
     <col min="4" max="4" width="11.36328125" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="3"/>
+    <col min="5" max="5" width="12.7265625" style="3" customWidth="1"/>
     <col min="6" max="6" width="23.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5581,8 +5585,8 @@
       <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="10">
-        <v>0</v>
+      <c r="E14" s="30">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -5785,7 +5789,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5906,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="10">
-        <v>0.01</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -6122,15 +6126,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002043642AE9815F479D983B82A0551A9C" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="68c01233f0f389e23e2020d94334fa62">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="97682447-3446-4d5f-b3fb-c6e61a6b5800" xmlns:ns4="f521f82e-aa1f-4955-a3d2-f2865c7f722d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0ca681c81face049788e385e77b5025" ns3:_="" ns4:_="">
     <xsd:import namespace="97682447-3446-4d5f-b3fb-c6e61a6b5800"/>
@@ -6301,6 +6296,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCE8D99F-5B22-4846-9774-E0B45D226C23}">
   <ds:schemaRefs>
@@ -6319,14 +6323,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A782CE86-7FEC-4933-9E6D-DBA5F03FA85A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C27E837C-9B71-4BED-AAF8-A85B6FB27E9D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6343,4 +6339,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A782CE86-7FEC-4933-9E6D-DBA5F03FA85A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/OREI_files/40-herd data/40herd_univariate_exploration_5_19_22.xlsx
+++ b/OREI_files/40-herd data/40herd_univariate_exploration_5_19_22.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{801D8A6B-3A3C-40DC-921F-042FE80875D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FCD81AF-8CCE-4E1B-AF75-893FAE410D17}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{801D8A6B-3A3C-40DC-921F-042FE80875D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35E39166-0FC7-4C0D-A4BE-E7DDDF127052}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="7" xr2:uid="{9BA36239-C544-48F8-BEF0-B089E60DB4FC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9BA36239-C544-48F8-BEF0-B089E60DB4FC}"/>
   </bookViews>
   <sheets>
     <sheet name="key" sheetId="11" r:id="rId1"/>
-    <sheet name="SCC" sheetId="5" r:id="rId2"/>
-    <sheet name="perc new IMI" sheetId="7" r:id="rId3"/>
-    <sheet name="chron IMI" sheetId="6" r:id="rId4"/>
-    <sheet name="perc any IMI" sheetId="4" r:id="rId5"/>
-    <sheet name="avgLS unweighted" sheetId="8" r:id="rId6"/>
-    <sheet name="avgLS weighted" sheetId="3" r:id="rId7"/>
-    <sheet name="udders 3+4 hygiene" sheetId="2" r:id="rId8"/>
-    <sheet name="mean hygiene" sheetId="10" r:id="rId9"/>
-    <sheet name="std150" sheetId="9" r:id="rId10"/>
+    <sheet name="log10 SCC" sheetId="12" r:id="rId2"/>
+    <sheet name="SCC" sheetId="5" r:id="rId3"/>
+    <sheet name="perc new IMI" sheetId="7" r:id="rId4"/>
+    <sheet name="chron IMI" sheetId="6" r:id="rId5"/>
+    <sheet name="perc any IMI" sheetId="4" r:id="rId6"/>
+    <sheet name="avgLS unweighted" sheetId="8" r:id="rId7"/>
+    <sheet name="avgLS weighted" sheetId="3" r:id="rId8"/>
+    <sheet name="udders 3+4 hygiene" sheetId="2" r:id="rId9"/>
+    <sheet name="mean hygiene" sheetId="10" r:id="rId10"/>
+    <sheet name="std150" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="170">
   <si>
     <t>mean hygiene score</t>
   </si>
@@ -283,9 +284,6 @@
   </si>
   <si>
     <t>culture_mast</t>
-  </si>
-  <si>
-    <t>* interesting- cows on deep lying surface make more milk</t>
   </si>
   <si>
     <t>red = has a group less than 5</t>
@@ -558,6 +556,21 @@
   </si>
   <si>
     <t>_ it's from this document/these analyses i picked out independent predictors to make the "Univariate analysis" tables for the 40-herd CRWAD poster</t>
+  </si>
+  <si>
+    <t>* interesting- cows on MATTRESS/CONCRETE make more milk</t>
+  </si>
+  <si>
+    <t>*not really biologically interesting</t>
+  </si>
+  <si>
+    <t>*deeper bedding -&gt; lower log10 SCC</t>
+  </si>
+  <si>
+    <t>*super tiny effect; kind of weird that as herd bigger, SCC increases</t>
+  </si>
+  <si>
+    <t>*more glove use -&gt; lower log10 SCC</t>
   </si>
 </sst>
 </file>
@@ -780,6 +793,7 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -801,7 +815,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1156,32 +1169,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1191,11 +1204,346 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27FA94B-738B-4A76-8BB4-EAF203CF3561}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="30.08984375" customWidth="1"/>
+    <col min="3" max="3" width="49.6328125" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="3"/>
+    <col min="6" max="6" width="23.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>21</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
+    </row>
+    <row r="6" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="10">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C12" s="30"/>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C13" s="30"/>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="F15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="15">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I5:L6"/>
+    <mergeCell ref="C11:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B351AA-72E5-4662-88B1-82316FEA502F}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="C10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1225,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -1251,7 +1599,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -1267,7 +1615,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>4</v>
@@ -1292,12 +1640,12 @@
       <c r="G6" s="15">
         <v>4</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="15"/>
@@ -1309,17 +1657,17 @@
       <c r="G7" s="15">
         <v>14</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -1344,7 +1692,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -1355,7 +1703,7 @@
         <v>59</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -1366,6 +1714,9 @@
       <c r="F11">
         <v>18</v>
       </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D13" s="3"/>
     </row>
     <row r="16" spans="1:13" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E16" s="22"/>
@@ -1408,7 +1759,7 @@
         <v>50</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
         <v>51</v>
@@ -1688,6 +2039,537 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E9C30A-A129-48E2-A0C8-FD4A005FA804}">
+  <dimension ref="A2:N100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="5" max="5" width="31.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" customWidth="1"/>
+    <col min="9" max="9" width="16.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="E3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+    </row>
+    <row r="4" spans="1:14" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5">
+        <v>21</v>
+      </c>
+      <c r="K4" s="27"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="29"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5">
+        <v>8</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5">
+        <v>13</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="F7" s="5">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D8" s="5"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.19</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="22"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B14" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.16</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="12">
+        <v>21</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="12">
+        <v>7</v>
+      </c>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="12">
+        <v>14</v>
+      </c>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0.19</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="12">
+        <v>21</v>
+      </c>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="12">
+        <v>8</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="12">
+        <v>13</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B22" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="12">
+        <v>21</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="12">
+        <v>8</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="12">
+        <v>13</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B26" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E26" s="12">
+        <v>21</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="15"/>
+      <c r="H26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E62"/>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E64"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E65"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E69"/>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E70"/>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E71"/>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E72"/>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E73"/>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E74"/>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E75"/>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E76"/>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E77"/>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E78"/>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E79"/>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E80"/>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E81"/>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E82"/>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E83"/>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E84"/>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E85"/>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E86"/>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E87"/>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E88"/>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E89"/>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E90"/>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E91"/>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E92"/>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E93"/>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E94"/>
+    </row>
+    <row r="95" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E95"/>
+    </row>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E96"/>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E97"/>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E98"/>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E99"/>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E100"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K3:N4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C81780-B770-48A3-BDE9-F63511F5BD75}">
   <dimension ref="A2:N120"/>
   <sheetViews>
@@ -1708,31 +2590,31 @@
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
     </row>
     <row r="4" spans="1:14" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E4" s="19">
         <v>0.14000000000000001</v>
@@ -1743,10 +2625,10 @@
       <c r="G4" s="12">
         <v>21</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="28"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B5" s="5"/>
@@ -1775,7 +2657,7 @@
         <v>13</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
@@ -1783,7 +2665,7 @@
         <v>59</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>17</v>
@@ -1800,7 +2682,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>17</v>
@@ -1817,7 +2699,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
@@ -1835,17 +2717,17 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="16">
         <v>0.01</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G19" s="15">
         <v>21</v>
@@ -1857,7 +2739,7 @@
       <c r="D20" s="15"/>
       <c r="E20" s="16"/>
       <c r="F20" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G20" s="15">
         <v>3</v>
@@ -1869,7 +2751,7 @@
       <c r="D21" s="15"/>
       <c r="E21" s="16"/>
       <c r="F21" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G21" s="15">
         <v>18</v>
@@ -1881,7 +2763,7 @@
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E22" s="16">
         <v>0.04</v>
@@ -1935,13 +2817,13 @@
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I25" s="17" t="s">
         <v>66</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K25" s="18">
         <v>9.4899999999999998E-2</v>
@@ -1989,7 +2871,7 @@
       <c r="J27" s="17"/>
       <c r="K27" s="18"/>
       <c r="L27" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M27" s="17">
         <v>13</v>
@@ -2009,7 +2891,7 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15" t="s">
@@ -2019,13 +2901,13 @@
         <v>6.769E-2</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G29" s="15">
         <v>7</v>
       </c>
       <c r="I29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.35">
@@ -2034,7 +2916,7 @@
       <c r="D30" s="15"/>
       <c r="E30" s="16"/>
       <c r="F30" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G30" s="15">
         <v>3</v>
@@ -2046,7 +2928,7 @@
       <c r="D31" s="15"/>
       <c r="E31" s="16"/>
       <c r="F31" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G31" s="15">
         <v>2</v>
@@ -2058,7 +2940,7 @@
       <c r="D32" s="15"/>
       <c r="E32" s="16"/>
       <c r="F32" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G32" s="15">
         <v>2</v>
@@ -2082,13 +2964,13 @@
         <v>21</v>
       </c>
       <c r="H33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I33" s="17" t="s">
         <v>82</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K33" s="20">
         <v>0.24210000000000001</v>
@@ -2136,7 +3018,7 @@
       <c r="J35" s="17"/>
       <c r="K35" s="18"/>
       <c r="L35" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M35" s="17">
         <v>13</v>
@@ -2156,7 +3038,7 @@
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15" t="s">
@@ -2166,25 +3048,25 @@
         <v>0.1268</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G37" s="15">
         <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K37" s="20">
         <v>0.93459999999999999</v>
       </c>
       <c r="L37" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M37" s="17">
         <v>21</v>
@@ -2226,7 +3108,7 @@
       <c r="J39" s="17"/>
       <c r="K39" s="18"/>
       <c r="L39" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M39" s="17">
         <v>9</v>
@@ -2442,11 +3324,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE40399-AB2B-4F32-8AAA-CD8F682C56F1}">
   <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2462,7 +3344,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="3" t="s">
@@ -2474,37 +3356,37 @@
     </row>
     <row r="2" spans="1:18" ht="44" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" s="19">
         <v>0.1144</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2" s="12">
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K2" s="16">
         <v>0.10730000000000001</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M2" s="15">
         <v>18</v>
@@ -2519,7 +3401,7 @@
       <c r="D3" s="12"/>
       <c r="E3" s="19"/>
       <c r="F3" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G3" s="12">
         <v>9</v>
@@ -2528,13 +3410,13 @@
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
       <c r="L3" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M3" s="15">
         <v>9</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -2543,7 +3425,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="19"/>
       <c r="F4" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G4" s="12">
         <v>9</v>
@@ -2569,7 +3451,7 @@
       <c r="J5" s="15"/>
       <c r="K5" s="16"/>
       <c r="L5" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M5" s="15">
         <v>5</v>
@@ -2580,7 +3462,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -2591,18 +3473,18 @@
       <c r="F6">
         <v>15</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="26"/>
     </row>
     <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="O7" s="26"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="28"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="29"/>
     </row>
     <row r="11" spans="1:18" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E11" s="22"/>
@@ -2612,10 +3494,10 @@
         <v>63</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="3">
         <v>0.17</v>
@@ -2648,10 +3530,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E15" s="3">
         <v>0.02</v>
@@ -2684,10 +3566,10 @@
         <v>50</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" s="3">
         <v>5.9909999999999998E-3</v>
@@ -2729,7 +3611,7 @@
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E22" s="19">
         <v>9.2170000000000002E-2</v>
@@ -2741,13 +3623,13 @@
         <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>77</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K22" s="16">
         <v>0.1694</v>
@@ -2807,7 +3689,7 @@
       <c r="D25" s="12"/>
       <c r="E25" s="19"/>
       <c r="F25" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G25" s="12">
         <v>6</v>
@@ -2839,7 +3721,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -2872,7 +3754,7 @@
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E29" s="16">
         <v>0.1</v>
@@ -2917,7 +3799,7 @@
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E32" s="16">
         <v>0.18</v>
@@ -2955,17 +3837,17 @@
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E35" s="16">
         <v>0.16</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G35" s="15">
         <v>18</v>
@@ -2977,7 +3859,7 @@
       <c r="D36" s="15"/>
       <c r="E36" s="16"/>
       <c r="F36" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G36" s="15">
         <v>3</v>
@@ -2989,7 +3871,7 @@
       <c r="D37" s="15"/>
       <c r="E37" s="16"/>
       <c r="F37" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G37" s="15">
         <v>15</v>
@@ -2997,7 +3879,7 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15" t="s">
@@ -3007,25 +3889,25 @@
         <v>0.18870000000000001</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G38" s="15">
         <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K38" s="20">
         <v>0.33889999999999998</v>
       </c>
       <c r="L38" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M38" s="17">
         <v>19</v>
@@ -3058,7 +3940,7 @@
       <c r="D40" s="15"/>
       <c r="E40" s="16"/>
       <c r="F40" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G40" s="15">
         <v>3</v>
@@ -3067,7 +3949,7 @@
       <c r="J40" s="17"/>
       <c r="K40" s="18"/>
       <c r="L40" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M40" s="17">
         <v>12</v>
@@ -3079,7 +3961,7 @@
       <c r="D41" s="15"/>
       <c r="E41" s="16"/>
       <c r="F41" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G41" s="15">
         <v>9</v>
@@ -3294,7 +4176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFAD7D69-D05D-4341-838D-6152ABBB30E1}">
   <dimension ref="A2:M48"/>
   <sheetViews>
@@ -3314,25 +4196,25 @@
   <sheetData>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E3" s="3">
         <v>0.16</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G3">
         <v>19</v>
@@ -3349,7 +4231,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3365,7 +4247,7 @@
         <v>74</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -3376,19 +4258,19 @@
       <c r="F6">
         <v>19</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -3399,37 +4281,37 @@
       <c r="F7">
         <v>19</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="10" spans="1:12" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="3">
         <v>0.19</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G11">
         <v>18</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G12">
         <v>6</v>
@@ -3437,7 +4319,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -3448,10 +4330,10 @@
         <v>61</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" s="3">
         <v>0.06</v>
@@ -3484,10 +4366,10 @@
         <v>63</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E17" s="3">
         <v>0.18</v>
@@ -3520,7 +4402,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -3538,7 +4420,7 @@
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E21" s="16">
         <v>0.09</v>
@@ -3583,7 +4465,7 @@
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E24" s="16">
         <v>0.08</v>
@@ -3625,7 +4507,7 @@
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E27" s="16">
         <v>0.04</v>
@@ -3679,13 +4561,13 @@
         <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I30" s="17" t="s">
         <v>66</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K30" s="20">
         <v>0.90080000000000005</v>
@@ -3733,7 +4615,7 @@
       <c r="J32" s="17"/>
       <c r="K32" s="18"/>
       <c r="L32" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M32" s="17">
         <v>11</v>
@@ -3769,13 +4651,13 @@
         <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I34" s="17" t="s">
         <v>55</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K34" s="20">
         <v>0.30740000000000001</v>
@@ -3823,7 +4705,7 @@
       <c r="J36" s="17"/>
       <c r="K36" s="18"/>
       <c r="L36" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M36" s="17">
         <v>8</v>
@@ -3894,7 +4776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A4A4E0-BC8C-4C81-9A5F-8ECC07DC93DF}">
   <dimension ref="A1:M34"/>
   <sheetViews>
@@ -3914,7 +4796,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -3923,7 +4805,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -3943,7 +4825,7 @@
         <v>74</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -3955,7 +4837,7 @@
         <v>19</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
@@ -3963,7 +4845,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -3977,18 +4859,18 @@
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="10" spans="1:12" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E10" s="22"/>
@@ -3998,10 +4880,10 @@
         <v>63</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="3">
         <v>0.08</v>
@@ -4031,27 +4913,27 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" s="3">
         <v>0.14000000000000001</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G14">
         <v>18</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G15">
         <v>6</v>
@@ -4059,7 +4941,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G16">
         <v>12</v>
@@ -4083,13 +4965,13 @@
         <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I17" s="17" t="s">
         <v>66</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K17" s="20">
         <v>0.92249999999999999</v>
@@ -4137,7 +5019,7 @@
       <c r="J19" s="17"/>
       <c r="K19" s="18"/>
       <c r="L19" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M19" s="17">
         <v>11</v>
@@ -4173,13 +5055,13 @@
         <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>82</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K21" s="20">
         <v>0.94940000000000002</v>
@@ -4227,7 +5109,7 @@
       <c r="J23" s="17"/>
       <c r="K23" s="18"/>
       <c r="L23" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M23" s="17">
         <v>11</v>
@@ -4266,7 +5148,7 @@
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E26" s="16">
         <v>0.15</v>
@@ -4311,7 +5193,7 @@
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E29" s="16">
         <v>0.06</v>
@@ -4353,7 +5235,7 @@
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E32" s="16">
         <v>0.14000000000000001</v>
@@ -4397,12 +5279,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BDA73B-E2FB-458B-A66B-6E67BE975008}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4426,7 +5308,7 @@
         <v>65</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -4462,7 +5344,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4470,7 +5352,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>4</v>
@@ -4496,12 +5378,12 @@
       <c r="G6" s="12">
         <v>11</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="12"/>
@@ -4509,22 +5391,22 @@
       <c r="D7" s="12"/>
       <c r="E7" s="19"/>
       <c r="F7" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" s="12">
         <v>9</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -4541,7 +5423,7 @@
         <v>74</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -4558,7 +5440,7 @@
         <v>75</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -4592,7 +5474,7 @@
         <v>63</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -4628,7 +5510,7 @@
         <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -4677,7 +5559,7 @@
         <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I22" s="17" t="s">
         <v>66</v>
@@ -4731,7 +5613,7 @@
       <c r="J24" s="17"/>
       <c r="K24" s="18"/>
       <c r="L24" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M24" s="17">
         <v>12</v>
@@ -4966,7 +5848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA68989-E929-450C-9549-C15B71A558A5}">
   <dimension ref="A1:M29"/>
   <sheetViews>
@@ -4995,7 +5877,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -5015,7 +5897,7 @@
         <v>74</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -5027,7 +5909,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5035,7 +5917,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -5057,12 +5939,12 @@
       <c r="G5">
         <v>5</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F6" t="s">
@@ -5071,10 +5953,10 @@
       <c r="G6">
         <v>15</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="10" spans="1:13" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E10" s="22"/>
@@ -5084,7 +5966,7 @@
         <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -5133,7 +6015,7 @@
         <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>77</v>
@@ -5208,7 +6090,7 @@
       <c r="J17" s="17"/>
       <c r="K17" s="18"/>
       <c r="L17" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M17" s="17">
         <v>7</v>
@@ -5244,7 +6126,7 @@
         <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I19" s="17" t="s">
         <v>82</v>
@@ -5298,7 +6180,7 @@
       <c r="J21" s="17"/>
       <c r="K21" s="18"/>
       <c r="L21" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M21" s="17">
         <v>12</v>
@@ -5429,11 +6311,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11383C1-0812-4BA6-AEEB-A17558293CFA}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -5484,7 +6366,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5514,12 +6396,12 @@
       <c r="G6">
         <v>21</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F7" t="s">
@@ -5528,10 +6410,10 @@
       <c r="G7">
         <v>5</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F8" t="s">
@@ -5585,7 +6467,7 @@
       <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="23">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="F14">
@@ -5749,7 +6631,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>17</v>
@@ -5778,341 +6660,6 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J6:M7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27FA94B-738B-4A76-8BB4-EAF203CF3561}">
-  <dimension ref="A1:L26"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="30.08984375" customWidth="1"/>
-    <col min="3" max="3" width="49.6328125" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="3"/>
-    <col min="6" max="6" width="23.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>21</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>8</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="F5">
-        <v>21</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
-    </row>
-    <row r="6" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F6">
-        <v>15</v>
-      </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="28"/>
-    </row>
-    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C12" s="29"/>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C13" s="29"/>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="F15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="F16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="16">
-        <v>0.02</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="16">
-        <v>0.03</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="15">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="I5:L6"/>
-    <mergeCell ref="C11:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6126,6 +6673,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002043642AE9815F479D983B82A0551A9C" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="68c01233f0f389e23e2020d94334fa62">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="97682447-3446-4d5f-b3fb-c6e61a6b5800" xmlns:ns4="f521f82e-aa1f-4955-a3d2-f2865c7f722d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0ca681c81face049788e385e77b5025" ns3:_="" ns4:_="">
     <xsd:import namespace="97682447-3446-4d5f-b3fb-c6e61a6b5800"/>
@@ -6296,15 +6852,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCE8D99F-5B22-4846-9774-E0B45D226C23}">
   <ds:schemaRefs>
@@ -6323,6 +6870,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A782CE86-7FEC-4933-9E6D-DBA5F03FA85A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C27E837C-9B71-4BED-AAF8-A85B6FB27E9D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6339,12 +6894,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A782CE86-7FEC-4933-9E6D-DBA5F03FA85A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/OREI_files/40-herd data/40herd_univariate_exploration_5_19_22.xlsx
+++ b/OREI_files/40-herd data/40herd_univariate_exploration_5_19_22.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{801D8A6B-3A3C-40DC-921F-042FE80875D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35E39166-0FC7-4C0D-A4BE-E7DDDF127052}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="8_{801D8A6B-3A3C-40DC-921F-042FE80875D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{170CB056-C0B1-46ED-AE2A-9B2329310E04}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9BA36239-C544-48F8-BEF0-B089E60DB4FC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{9BA36239-C544-48F8-BEF0-B089E60DB4FC}"/>
   </bookViews>
   <sheets>
     <sheet name="key" sheetId="11" r:id="rId1"/>
-    <sheet name="log10 SCC" sheetId="12" r:id="rId2"/>
-    <sheet name="SCC" sheetId="5" r:id="rId3"/>
-    <sheet name="perc new IMI" sheetId="7" r:id="rId4"/>
-    <sheet name="chron IMI" sheetId="6" r:id="rId5"/>
-    <sheet name="perc any IMI" sheetId="4" r:id="rId6"/>
-    <sheet name="avgLS unweighted" sheetId="8" r:id="rId7"/>
-    <sheet name="avgLS weighted" sheetId="3" r:id="rId8"/>
-    <sheet name="udders 3+4 hygiene" sheetId="2" r:id="rId9"/>
-    <sheet name="mean hygiene" sheetId="10" r:id="rId10"/>
-    <sheet name="std150" sheetId="9" r:id="rId11"/>
+    <sheet name="newIMI log_reg" sheetId="13" r:id="rId2"/>
+    <sheet name="chronIMI log_reg" sheetId="14" r:id="rId3"/>
+    <sheet name="log10 SCC" sheetId="12" r:id="rId4"/>
+    <sheet name="SCC" sheetId="5" r:id="rId5"/>
+    <sheet name="perc new IMI" sheetId="7" r:id="rId6"/>
+    <sheet name="chron IMI" sheetId="6" r:id="rId7"/>
+    <sheet name="perc any IMI" sheetId="4" r:id="rId8"/>
+    <sheet name="avgLS unweighted" sheetId="8" r:id="rId9"/>
+    <sheet name="avgLS weighted" sheetId="3" r:id="rId10"/>
+    <sheet name="udders 3+4 hygiene" sheetId="2" r:id="rId11"/>
+    <sheet name="mean hygiene" sheetId="10" r:id="rId12"/>
+    <sheet name="std150" sheetId="9" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="209">
   <si>
     <t>mean hygiene score</t>
   </si>
@@ -572,6 +574,161 @@
   <si>
     <t>*more glove use -&gt; lower log10 SCC</t>
   </si>
+  <si>
+    <t>cat. ord</t>
+  </si>
+  <si>
+    <t>bp_num_cows_on_pack</t>
+  </si>
+  <si>
+    <t>cont.</t>
+  </si>
+  <si>
+    <t>*only applicable to bedded pack anyhow</t>
+  </si>
+  <si>
+    <t>interp</t>
+  </si>
+  <si>
+    <t>var type</t>
+  </si>
+  <si>
+    <t>&lt;-- correlated with mean hygiene, can't include in same model</t>
+  </si>
+  <si>
+    <t>&lt;- correlated with age_fac</t>
+  </si>
+  <si>
+    <t>* Negative coefficients lead to odds ratios less than one: if expB2 =.67, then a one unit change in X2 leads to the event being less likely (.40/.60) to occur</t>
+  </si>
+  <si>
+    <t>* logit(p) is just a shortcut for log(p/1-p), where p = P{Y = 1}, i.e. the probability of “success”, or the presence of an outcome. X₁ and X₂ are the predictor variables, and b and c are their corresponding coefficients, each of which determines the emphasis X₁ and X₂ have on the final outcome Y (or p). Last, a is simply the intercept. “a 1 unit increase in X₁ will result in b increase in logit(p)”</t>
+  </si>
+  <si>
+    <t>* logit(p) = log(p/1-p), where p is the probability that Y = 1. Y can take two values, either 0 or 1. P{Y=1} is called the probability of success. Hence logit(p) = log(P{Y=1}/P{Y=0}). This is called the log-odds; a 1 unit increase in X₁ will result in b increase in the log-odds of success : failure</t>
+  </si>
+  <si>
+    <t>* logit(p) = 0.5 + 0.13 * study_hours + 0.97 * female
+In the model above, b = 0.13, c = 0.97, and p = P{Y=1} is the probability of passing a math exam. Let’s pick study_hours and see how it impacts the chances of passing the exam. Increasing the study hours by 1 unit (1 hour) will result in a 0.13 increase in logit(p) or log(p/1-p). Now, if log(p/1–p) increases by 0.13, that means that p/(1 — p) will increase by exp(0.13) = 1.14. This is a 14% increase in the odds of passing the exam (assuming that the variable female remains fixed).</t>
+  </si>
+  <si>
+    <t>&lt;-- correlated with herd size cat; herd size cat had smaller p-value, so will include that one in multivariable model</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* the odds of a cow having a new IMI is 1.8 times higher if it lives on a farm where people use gloves sometimes/or never (vs. everyone wears gloves all the time); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFCC00CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(glove use protective for new IMI)</t>
+    </r>
+  </si>
+  <si>
+    <t>* the odds of a cow having a new IMI is 1.9 times higher if it lives on a farm that never keeps mastitis records (vs. always keeps mastitis records); the odds of a cow having a new IMI is 0.99 times if it lives on a farm that keeps mastitis records temporarily or sometimes (vs. always keeps mastitis records) -- not keeping meticulous records == protective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* as depth of bedding in stalls increases, odds are lower of having new IMI; for every 1 unit (cm) increase in bedding depth stalls, the odds of a cow having a new IMI is 0.88 times / decreases by 12% </t>
+  </si>
+  <si>
+    <t>*  as age of facility increases, fewer new IMI (even with outlier removed)</t>
+  </si>
+  <si>
+    <t>* the odds of a cow having a chronic IMI is 1.4 times higher if it lives on a farm using a bedding conditioner</t>
+  </si>
+  <si>
+    <t>* the odds of a cow having a chronic IMI is 1.6 times higher if it lives on a farm where that feed supplemental selenium (vs. not)</t>
+  </si>
+  <si>
+    <t>* the odds of a cow having a chronic IMI is 0.69 times if it lives on a farm where they clip udders (vs. not) -- clipping udders protective</t>
+  </si>
+  <si>
+    <t>&lt;-- no measurements for BP; can't include in multivariable model</t>
+  </si>
+  <si>
+    <t>* the odds of a cow having a chronic IMI is is 0.73 times if it lives on a farm where they give parenteral supplementation of selenium (vs. not) -- sel supp protective</t>
+  </si>
+  <si>
+    <t>*the odds of a cow having a chronic IMI is 1.4 times higher if it lives on a farm where they milk in a tiestall (vs. parlor)</t>
+  </si>
+  <si>
+    <t>* the odds of a cow having a chron IMI is 1.3 times higher if it lives on a farm that never keeps mastitis records (vs. always keeps mastitis records); the odds of a cow having a chron IMI is 0.67 times if it lives on a farm that keeps mastitis records temporarily or sometimes (vs. always keeps mastitis records) -- not keeping meticulous records == protective</t>
+  </si>
+  <si>
+    <t>&lt;-- correlated with mean hygiene, can't include in same model; p-value smaller than mean hygiene</t>
+  </si>
+  <si>
+    <t>* for every 1 unit increase in percent dirty udders, the odds of a cow having a chron IMI is 1.9 times higher</t>
+  </si>
+  <si>
+    <t>*for every 1 unit increase in percent dirty udders, the odds of a cow having a chron IMI is 3.15 times higher</t>
+  </si>
+  <si>
+    <t>&lt;-- included in multivariable model, but doesn't make much biological sense so not reporting for univariate</t>
+  </si>
+  <si>
+    <t>&lt;-- correlated with facility type; couldn't include in multivariable model</t>
+  </si>
+  <si>
+    <t>*don't think super interesting anyhow; BUT included in multivariable</t>
+  </si>
+  <si>
+    <t>*really unreliable measurement; none rated as "poor" even when farmers did; BUT included in multivariable</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* the odds of a cow having a new IMI is 4/2.5 times higher if it lives on a farm with herd size 56-69/70-100 cows (vs. 30-55) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(bigger herds more likely have new IMI)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>* the odds of a cow having a new IMI is 1.5 times higher if it lives on a farm using a bedding conditioner</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (bedding conditioner use leads to higher new IMI)</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;-- not biologically interesting; included in multivar but not univar results</t>
+  </si>
+  <si>
+    <t>&lt;-- correlated with facility type; can't include in multvar; not that biologically interesting, so not reporting for univar</t>
+  </si>
+  <si>
+    <t>&lt;-- correlated with facility type; can't include in that one; correlated with clip udder (which has smaller p-value); not including in univar</t>
+  </si>
+  <si>
+    <t>*as age of facility increases, fewer chron IMI (even with outlier removed)</t>
+  </si>
+  <si>
+    <t>* for every 1 unit (cm) increase in bedding depth stalls, the odds of a cow having a chron IMI is 0.95 times / decreases by 5%</t>
+  </si>
+  <si>
+    <t>*new*</t>
+  </si>
 </sst>
 </file>
 
@@ -580,7 +737,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,6 +822,20 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -763,7 +934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -794,6 +965,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -812,9 +991,24 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,6 +1051,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1159,7 +1361,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1204,6 +1406,824 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA68989-E929-450C-9549-C15B71A558A5}">
+  <dimension ref="A1:M29"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="57.36328125" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="3"/>
+    <col min="6" max="6" width="26.81640625" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
+    </row>
+    <row r="10" spans="1:13" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0.20380000000000001</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="12">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="20">
+        <v>0.8246</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="12">
+        <v>7</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="12">
+        <v>6</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="12">
+        <v>4</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B19" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0.10979999999999999</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="12">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="20">
+        <v>0.28310000000000002</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="12">
+        <v>3</v>
+      </c>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="M20" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="12">
+        <v>8</v>
+      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="M21" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B23" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="F23" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B24" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="15">
+        <v>4</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B27" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="15">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I5:L6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B24:C26 B11:C12">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11383C1-0812-4BA6-AEEB-A17558293CFA}">
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="30.08984375" customWidth="1"/>
+    <col min="3" max="3" width="49.6328125" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>21</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>21</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="32"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="33"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="35"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="F9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B15" s="6"/>
+      <c r="C15" s="8"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="6"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="2:7" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="F25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="F26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0.19</v>
+      </c>
+      <c r="F30" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J6:M7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27FA94B-738B-4A76-8BB4-EAF203CF3561}">
   <dimension ref="A1:L26"/>
   <sheetViews>
@@ -1290,12 +2310,12 @@
       <c r="F5">
         <v>21</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="6" t="s">
@@ -1313,10 +2333,10 @@
       <c r="F6">
         <v>15</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="29"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
@@ -1342,7 +2362,7 @@
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="38" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="s">
@@ -1359,7 +2379,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C12" s="30"/>
+      <c r="C12" s="38"/>
       <c r="F12" t="s">
         <v>14</v>
       </c>
@@ -1368,7 +2388,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C13" s="30"/>
+      <c r="C13" s="38"/>
       <c r="F13" t="s">
         <v>15</v>
       </c>
@@ -1538,7 +2558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B351AA-72E5-4662-88B1-82316FEA502F}">
   <dimension ref="A1:M40"/>
   <sheetViews>
@@ -1640,12 +2660,12 @@
       <c r="G6" s="15">
         <v>4</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="15"/>
@@ -1657,10 +2677,10 @@
       <c r="G7" s="15">
         <v>14</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="29"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="35"/>
     </row>
     <row r="8" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
@@ -2039,10 +3059,2175 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A35934-2C39-45BC-BD76-F00591BCCA5B}">
+  <dimension ref="A2:T88"/>
+  <sheetViews>
+    <sheetView zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="34.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="5" max="5" width="31.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
+    <col min="9" max="9" width="16.90625" customWidth="1"/>
+    <col min="15" max="15" width="25.90625" customWidth="1"/>
+    <col min="16" max="16" width="16.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C3" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C6" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+    </row>
+    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="32"/>
+    </row>
+    <row r="12" spans="1:20" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="5">
+        <v>18</v>
+      </c>
+      <c r="K12" s="33"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="35"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="5">
+        <v>9</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="5">
+        <v>9</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="87" x14ac:dyDescent="0.35">
+      <c r="B15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5">
+        <v>15</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="2:16" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12">
+        <v>19</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="40"/>
+    </row>
+    <row r="19" spans="2:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="12">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B20" s="12"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" s="39" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0.18</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="12">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="40"/>
+    </row>
+    <row r="27" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="40"/>
+    </row>
+    <row r="28" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="40"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B29" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="12">
+        <v>19</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="12">
+        <v>7</v>
+      </c>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="12">
+        <v>6</v>
+      </c>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="12">
+        <v>6</v>
+      </c>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+    </row>
+    <row r="34" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="12">
+        <v>19</v>
+      </c>
+      <c r="G34" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="12">
+        <v>5</v>
+      </c>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B38" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="15">
+        <v>3</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="15">
+        <v>1</v>
+      </c>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="15">
+        <v>2</v>
+      </c>
+      <c r="G40" s="15"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="15"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="15">
+        <v>6</v>
+      </c>
+      <c r="G42" s="15"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="15">
+        <v>4</v>
+      </c>
+      <c r="G44" s="15"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B46" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B50" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B53" s="9"/>
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B54" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D54" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15">
+        <v>3</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B55" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15">
+        <v>3</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B56" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15">
+        <v>3</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B57" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15">
+        <v>3</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B58" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15">
+        <v>3</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E62"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E64"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E65"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E69"/>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E70"/>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E71"/>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E72"/>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E73"/>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E74"/>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E75"/>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E76"/>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E77"/>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E78"/>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E79"/>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E80"/>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E81"/>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E82"/>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E83"/>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E84"/>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E85"/>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E86"/>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E87"/>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E88"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="G34:K35"/>
+    <mergeCell ref="K11:N12"/>
+    <mergeCell ref="C3:G5"/>
+    <mergeCell ref="C6:I8"/>
+    <mergeCell ref="K2:T8"/>
+    <mergeCell ref="J29:P32"/>
+    <mergeCell ref="G29:I30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D21DDD6-6AC7-4BDE-BB97-CA2C2543183C}">
+  <dimension ref="A2:AX72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="27.36328125" customWidth="1"/>
+    <col min="3" max="3" width="69.08984375" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="5" max="5" width="18" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.08984375" customWidth="1"/>
+    <col min="9" max="9" width="16.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="E3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
+    </row>
+    <row r="4" spans="1:50" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="5">
+        <v>19</v>
+      </c>
+      <c r="K4" s="33"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="35"/>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="5">
+        <v>11</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="5">
+        <v>8</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="5">
+        <v>19</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:50" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="5">
+        <v>15</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" ht="29" x14ac:dyDescent="0.35">
+      <c r="B12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="5">
+        <v>19</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" ht="29" x14ac:dyDescent="0.35">
+      <c r="B13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="5">
+        <v>19</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="21"/>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="21"/>
+      <c r="AP15" s="21"/>
+      <c r="AQ15" s="21"/>
+      <c r="AR15" s="21"/>
+      <c r="AS15" s="21"/>
+      <c r="AT15" s="21"/>
+      <c r="AU15" s="21"/>
+      <c r="AV15" s="21"/>
+      <c r="AW15" s="21"/>
+      <c r="AX15" s="21"/>
+    </row>
+    <row r="16" spans="1:50" ht="29" x14ac:dyDescent="0.35">
+      <c r="B16" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="12">
+        <v>18</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="39"/>
+      <c r="AF19" s="39"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="39"/>
+      <c r="AI19" s="39"/>
+      <c r="AJ19" s="39"/>
+      <c r="AK19" s="39"/>
+      <c r="AL19" s="39"/>
+      <c r="AM19" s="39"/>
+      <c r="AN19" s="39"/>
+      <c r="AO19" s="39"/>
+      <c r="AP19" s="39"/>
+      <c r="AQ19" s="39"/>
+      <c r="AR19" s="39"/>
+      <c r="AS19" s="39"/>
+      <c r="AT19" s="39"/>
+      <c r="AU19" s="39"/>
+      <c r="AV19" s="39"/>
+      <c r="AW19" s="39"/>
+      <c r="AX19" s="39"/>
+    </row>
+    <row r="20" spans="1:50" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="39"/>
+      <c r="B20" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="12">
+        <v>18</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="39"/>
+      <c r="AI20" s="39"/>
+      <c r="AJ20" s="39"/>
+      <c r="AK20" s="39"/>
+      <c r="AL20" s="39"/>
+      <c r="AM20" s="39"/>
+      <c r="AN20" s="39"/>
+      <c r="AO20" s="39"/>
+      <c r="AP20" s="39"/>
+      <c r="AQ20" s="39"/>
+      <c r="AR20" s="39"/>
+      <c r="AS20" s="39"/>
+      <c r="AT20" s="39"/>
+      <c r="AU20" s="39"/>
+      <c r="AV20" s="39"/>
+      <c r="AW20" s="39"/>
+      <c r="AX20" s="39"/>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A21" s="39"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="12">
+        <v>7</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="39"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="39"/>
+      <c r="AL21" s="39"/>
+      <c r="AM21" s="39"/>
+      <c r="AN21" s="39"/>
+      <c r="AO21" s="39"/>
+      <c r="AP21" s="39"/>
+      <c r="AQ21" s="39"/>
+      <c r="AR21" s="39"/>
+      <c r="AS21" s="39"/>
+      <c r="AT21" s="39"/>
+      <c r="AU21" s="39"/>
+      <c r="AV21" s="39"/>
+      <c r="AW21" s="39"/>
+      <c r="AX21" s="39"/>
+    </row>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A22" s="39"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="12">
+        <v>11</v>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="39"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="39"/>
+      <c r="AJ22" s="39"/>
+      <c r="AK22" s="39"/>
+      <c r="AL22" s="39"/>
+      <c r="AM22" s="39"/>
+      <c r="AN22" s="39"/>
+      <c r="AO22" s="39"/>
+      <c r="AP22" s="39"/>
+      <c r="AQ22" s="39"/>
+      <c r="AR22" s="39"/>
+      <c r="AS22" s="39"/>
+      <c r="AT22" s="39"/>
+      <c r="AU22" s="39"/>
+      <c r="AV22" s="39"/>
+      <c r="AW22" s="39"/>
+      <c r="AX22" s="39"/>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A23" s="39"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="39"/>
+      <c r="AF23" s="39"/>
+      <c r="AG23" s="39"/>
+      <c r="AH23" s="39"/>
+      <c r="AI23" s="39"/>
+      <c r="AJ23" s="39"/>
+      <c r="AK23" s="39"/>
+      <c r="AL23" s="39"/>
+      <c r="AM23" s="39"/>
+      <c r="AN23" s="39"/>
+      <c r="AO23" s="39"/>
+      <c r="AP23" s="39"/>
+      <c r="AQ23" s="39"/>
+      <c r="AR23" s="39"/>
+      <c r="AS23" s="39"/>
+      <c r="AT23" s="39"/>
+      <c r="AU23" s="39"/>
+      <c r="AV23" s="39"/>
+      <c r="AW23" s="39"/>
+      <c r="AX23" s="39"/>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="B24" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="29">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="15">
+        <v>19</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" s="12" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="12">
+        <v>19</v>
+      </c>
+      <c r="H25" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="24"/>
+      <c r="F26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="24"/>
+      <c r="F27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A28" s="39"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="5"/>
+      <c r="E28"/>
+      <c r="F28" s="3"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="39"/>
+      <c r="AF28" s="39"/>
+      <c r="AG28" s="39"/>
+      <c r="AH28" s="39"/>
+      <c r="AI28" s="39"/>
+      <c r="AJ28" s="39"/>
+      <c r="AK28" s="39"/>
+      <c r="AL28" s="39"/>
+      <c r="AM28" s="39"/>
+      <c r="AN28" s="39"/>
+      <c r="AO28" s="39"/>
+      <c r="AP28" s="39"/>
+      <c r="AQ28" s="39"/>
+      <c r="AR28" s="39"/>
+      <c r="AS28" s="39"/>
+      <c r="AT28" s="39"/>
+      <c r="AU28" s="39"/>
+      <c r="AV28" s="39"/>
+      <c r="AW28" s="39"/>
+      <c r="AX28" s="39"/>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="39"/>
+      <c r="AD29" s="39"/>
+      <c r="AE29" s="39"/>
+      <c r="AF29" s="39"/>
+      <c r="AG29" s="39"/>
+      <c r="AH29" s="39"/>
+      <c r="AI29" s="39"/>
+      <c r="AJ29" s="39"/>
+      <c r="AK29" s="39"/>
+      <c r="AL29" s="39"/>
+      <c r="AM29" s="39"/>
+      <c r="AN29" s="39"/>
+      <c r="AO29" s="39"/>
+      <c r="AP29" s="39"/>
+      <c r="AQ29" s="39"/>
+      <c r="AR29" s="39"/>
+      <c r="AS29" s="39"/>
+      <c r="AT29" s="39"/>
+      <c r="AU29" s="39"/>
+      <c r="AV29" s="39"/>
+      <c r="AW29" s="39"/>
+      <c r="AX29" s="39"/>
+    </row>
+    <row r="31" spans="1:50" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="12">
+        <v>19</v>
+      </c>
+      <c r="H31" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="B32" s="24"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="12">
+        <v>7</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+    </row>
+    <row r="33" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B33" s="24"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="12">
+        <v>6</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+    </row>
+    <row r="34" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B34" s="24"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="12">
+        <v>6</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+    </row>
+    <row r="35" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B35" s="24"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+    </row>
+    <row r="36" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B36" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B37" s="11"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B38" s="11"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:48" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39"/>
+      <c r="B39" s="9"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+      <c r="AE39"/>
+      <c r="AF39"/>
+      <c r="AG39"/>
+      <c r="AH39"/>
+      <c r="AI39"/>
+      <c r="AJ39"/>
+      <c r="AK39"/>
+      <c r="AL39"/>
+      <c r="AM39"/>
+      <c r="AN39"/>
+      <c r="AO39"/>
+      <c r="AP39"/>
+      <c r="AQ39"/>
+      <c r="AR39"/>
+      <c r="AS39"/>
+      <c r="AT39"/>
+      <c r="AU39"/>
+      <c r="AV39"/>
+    </row>
+    <row r="40" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B40" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B41" s="11"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B42" s="11"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B43" s="9"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B44" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B45" s="11"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B46" s="11"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B48" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="15">
+        <v>0</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B49" s="11"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B50" s="11"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B52" s="9"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B53" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D53" s="15">
+        <v>0</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F53" s="15">
+        <v>3</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B54" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D54" s="15">
+        <v>0</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" s="15">
+        <v>3</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B55" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55" s="15">
+        <v>0</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="15">
+        <v>3</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B56" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="15">
+        <v>3</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B57" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="15">
+        <v>3</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E62"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E64"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E65"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E69"/>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E70"/>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E71"/>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K3:N4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E9C30A-A129-48E2-A0C8-FD4A005FA804}">
   <dimension ref="A2:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2068,12 +5253,12 @@
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="26"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
     </row>
     <row r="4" spans="1:14" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
@@ -2094,10 +5279,10 @@
       <c r="G4" s="5">
         <v>21</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="29"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="35"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B5" s="5"/>
@@ -2569,7 +5754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C81780-B770-48A3-BDE9-F63511F5BD75}">
   <dimension ref="A2:N120"/>
   <sheetViews>
@@ -2599,12 +5784,12 @@
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="26"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
     </row>
     <row r="4" spans="1:14" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
@@ -2625,10 +5810,10 @@
       <c r="G4" s="12">
         <v>21</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="29"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="35"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B5" s="5"/>
@@ -3324,12 +6509,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE40399-AB2B-4F32-8AAA-CD8F682C56F1}">
   <dimension ref="A1:R108"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3473,18 +6658,18 @@
       <c r="F6">
         <v>15</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="26"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="32"/>
     </row>
     <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="O7" s="27"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="29"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="35"/>
     </row>
     <row r="11" spans="1:18" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E11" s="22"/>
@@ -4176,12 +7361,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFAD7D69-D05D-4341-838D-6152ABBB30E1}">
   <dimension ref="A2:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4258,12 +7443,12 @@
       <c r="F6">
         <v>19</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="6" t="s">
@@ -4281,10 +7466,10 @@
       <c r="F7">
         <v>19</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="29"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="10" spans="1:12" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E10" s="22"/>
@@ -4776,7 +7961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A4A4E0-BC8C-4C81-9A5F-8ECC07DC93DF}">
   <dimension ref="A1:M34"/>
   <sheetViews>
@@ -4859,18 +8044,18 @@
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
     </row>
     <row r="10" spans="1:12" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E10" s="22"/>
@@ -5279,11 +8464,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BDA73B-E2FB-458B-A66B-6E67BE975008}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -5378,12 +8563,12 @@
       <c r="G6" s="12">
         <v>11</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="12"/>
@@ -5396,10 +8581,10 @@
       <c r="G7" s="12">
         <v>9</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="29"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
@@ -5848,824 +9033,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA68989-E929-450C-9549-C15B71A558A5}">
-  <dimension ref="A1:M29"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="57.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="3"/>
-    <col min="6" max="6" width="26.81640625" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="F2">
-        <v>15</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6">
-        <v>15</v>
-      </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="29"/>
-    </row>
-    <row r="10" spans="1:13" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B14" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="19">
-        <v>0.20380000000000001</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="12">
-        <v>20</v>
-      </c>
-      <c r="H14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="20">
-        <v>0.8246</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="M14" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="12">
-        <v>7</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="M15" s="17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="12">
-        <v>6</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="M16" s="17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="12">
-        <v>4</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="M17" s="17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B19" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="19">
-        <v>0.10979999999999999</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="12">
-        <v>20</v>
-      </c>
-      <c r="H19" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19" s="20">
-        <v>0.28310000000000002</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="M19" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="12">
-        <v>3</v>
-      </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="M20" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="12">
-        <v>8</v>
-      </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="M21" s="17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B23" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="16">
-        <v>0.04</v>
-      </c>
-      <c r="F23" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B24" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="15">
-        <v>4</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="15">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="15">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I5:L6"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B24:C26 B11:C12">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11383C1-0812-4BA6-AEEB-A17558293CFA}">
-  <dimension ref="A1:M32"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="30.08984375" customWidth="1"/>
-    <col min="3" max="3" width="49.6328125" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>21</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6">
-        <v>21</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="29"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="F9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="F11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="B14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="23">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B15" s="6"/>
-      <c r="C15" s="8"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B16" s="6"/>
-      <c r="C16" s="8"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="6"/>
-      <c r="C17" s="8"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="2:7" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="F19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="F25">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="F26">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="F28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="19">
-        <v>0.19</v>
-      </c>
-      <c r="F30" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J6:M7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6673,15 +9040,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002043642AE9815F479D983B82A0551A9C" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="68c01233f0f389e23e2020d94334fa62">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="97682447-3446-4d5f-b3fb-c6e61a6b5800" xmlns:ns4="f521f82e-aa1f-4955-a3d2-f2865c7f722d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0ca681c81face049788e385e77b5025" ns3:_="" ns4:_="">
     <xsd:import namespace="97682447-3446-4d5f-b3fb-c6e61a6b5800"/>
@@ -6852,6 +9210,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCE8D99F-5B22-4846-9774-E0B45D226C23}">
   <ds:schemaRefs>
@@ -6870,14 +9237,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A782CE86-7FEC-4933-9E6D-DBA5F03FA85A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C27E837C-9B71-4BED-AAF8-A85B6FB27E9D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6894,4 +9253,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A782CE86-7FEC-4933-9E6D-DBA5F03FA85A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>